--- a/mbs-perturbation/chain/welm/chain_welm_lin_results.xlsx
+++ b/mbs-perturbation/chain/welm/chain_welm_lin_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9829059829059829</v>
+        <v>0.9436619718309859</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9554347826086956</v>
+        <v>0.9225690276110444</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9871794871794872</v>
+        <v>0.9577464788732394</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8066378066378066</v>
+        <v>0.8026533996683251</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9914163090128756</v>
+        <v>0.9292452830188679</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9956709956709957</v>
+        <v>0.8523437500000001</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9871244635193133</v>
+        <v>0.9669811320754716</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9753623188405798</v>
+        <v>0.9428217821782179</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9828326180257511</v>
+        <v>0.9481132075471698</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8700873362445415</v>
+        <v>0.9123376623376623</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.986291772128682</v>
+        <v>0.9491496146691469</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.40296918767507</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.513670151508353</v>
       </c>
       <c r="E7" t="n">
-        <v>0.920638648000524</v>
+        <v>0.8865451243590499</v>
       </c>
     </row>
   </sheetData>
